--- a/Análises Esportivas/ciclos de Netuno/14 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/14 - editável_ciclos.xlsx
@@ -186,7 +186,7 @@
     <t xml:space="preserve">15-11</t>
   </si>
   <si>
-    <t xml:space="preserve">obs linha 5 é $1 do ciclo 1 que sobrou</t>
+    <t xml:space="preserve">obs linha 7 é $1 do ciclo 1 que sobrou</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>1.97</v>
+        <v>5.6</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
@@ -1411,19 +1411,19 @@
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>5.02</v>
+        <v>8.65</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>5.02</v>
+        <v>8.65</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>6.52</v>
+        <v>10.15</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>9.52</v>
+        <v>13.15</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>0.52</v>
+        <v>4.15</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>-2.53</v>
+        <v>1.1</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
@@ -4026,7 +4026,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>1.97</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>-1.03</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>1.97</v>
+        <v>5.6</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>-0.343333333333333</v>
+        <v>0.866666666666666</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>-1.03</v>
+        <v>2.6</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>-0.343333333333333</v>
+        <v>0.866666666666666</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>-1.98129796077971</v>
+        <v>0.953158807466276</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,14 +4433,16 @@
         <f aca="false">D9*J9</f>
         <v>0.169721741300606</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>1.26</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>0.639593908629442</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>1.09027825869939</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!D$5)</f>
@@ -4464,7 +4466,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>-2.53</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4473,7 +4475,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -4481,20 +4483,22 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.135271042350211</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
         <v>0.172586572955467</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>0.619195046439629</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>1.82741342704453</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!D$5)</f>
@@ -4514,7 +4518,7 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
@@ -4522,20 +4526,22 @@
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.213554446657681</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
         <v>0.175319065436179</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58" t="n">
+        <v>0.19</v>
+      </c>
       <c r="H11" s="67" t="n">
         <f aca="false">IF(G11=0,,G11/C11)</f>
-        <v>0</v>
+        <v>0.0363288718929254</v>
       </c>
       <c r="I11" s="68" t="n">
         <f aca="false">IF(G11=0,,G11-F11)</f>
-        <v>0</v>
+        <v>0.014680934563821</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">J10*(1-Diretrizes!D$5)</f>
@@ -4558,7 +4564,7 @@
       </c>
       <c r="C12" s="65" t="n">
         <f aca="false">IF(G11&lt;&gt;0,C11+G11,)</f>
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="D12" s="66" t="n">
         <f aca="false">D11*(1+J11)</f>
@@ -4566,20 +4572,22 @@
       </c>
       <c r="E12" s="65" t="n">
         <f aca="false">C12*J12</f>
-        <v>0</v>
+        <v>0.215779822822661</v>
       </c>
       <c r="F12" s="66" t="n">
         <f aca="false">D12*J12</f>
         <v>0.17791585206176</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="58" t="n">
+        <v>0.18</v>
+      </c>
       <c r="H12" s="67" t="n">
         <f aca="false">IF(G12=0,,G12/C12)</f>
-        <v>0</v>
+        <v>0.033210332103321</v>
       </c>
       <c r="I12" s="68" t="n">
         <f aca="false">IF(G12=0,,G12-F12)</f>
-        <v>0</v>
+        <v>0.00208414793823999</v>
       </c>
       <c r="J12" s="61" t="n">
         <f aca="false">J11*(1-Diretrizes!D$5)</f>
@@ -4604,7 +4612,7 @@
       </c>
       <c r="C13" s="65" t="n">
         <f aca="false">IF(G12&lt;&gt;0,C12+G12,)</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D13" s="66" t="n">
         <f aca="false">D12*(1+J12)</f>
@@ -4612,7 +4620,7 @@
       </c>
       <c r="E13" s="65" t="n">
         <f aca="false">C13*J13</f>
-        <v>0</v>
+        <v>0.217372293839803</v>
       </c>
       <c r="F13" s="66" t="n">
         <f aca="false">D13*J13</f>
@@ -6441,7 +6449,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>

--- a/Análises Esportivas/ciclos de Netuno/14 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/14 - editável_ciclos.xlsx
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>5.6</v>
+        <v>2.05</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
@@ -1411,19 +1411,19 @@
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>8.65</v>
+        <v>5.1</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>8.65</v>
+        <v>5.1</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>10.15</v>
+        <v>6.6</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>13.15</v>
+        <v>9.6</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>4.15</v>
+        <v>0.6</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>1.1</v>
+        <v>-2.45</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
@@ -4026,7 +4026,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>5.6</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>2.6</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>5.6</v>
+        <v>2.05</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.866666666666666</v>
+        <v>-0.316666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>2.6</v>
+        <v>-0.95</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.866666666666666</v>
+        <v>-0.316666666666667</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>0.953158807466276</v>
+        <v>-3.3316659367081</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>1.1</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4626,14 +4626,16 @@
         <f aca="false">D13*J13</f>
         <v>0.180374023058989</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="58" t="n">
+        <v>-2.43</v>
+      </c>
       <c r="H13" s="67" t="n">
         <f aca="false">IF(G13=0,,G13/C13)</f>
-        <v>0</v>
+        <v>-0.433928571428571</v>
       </c>
       <c r="I13" s="68" t="n">
         <f aca="false">IF(G13=0,,G13-F13)</f>
-        <v>0</v>
+        <v>-2.61037402305899</v>
       </c>
       <c r="J13" s="61" t="n">
         <f aca="false">J12*(1-Diretrizes!D$5)</f>
@@ -4656,7 +4658,7 @@
       </c>
       <c r="C14" s="65" t="n">
         <f aca="false">IF(G13&lt;&gt;0,C13+G13,)</f>
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="D14" s="66" t="n">
         <f aca="false">D13*(1+J13)</f>
@@ -4664,20 +4666,22 @@
       </c>
       <c r="E14" s="65" t="n">
         <f aca="false">C14*J14</f>
-        <v>0</v>
+        <v>0.119972038783102</v>
       </c>
       <c r="F14" s="66" t="n">
         <f aca="false">D14*J14</f>
         <v>0.182691120208034</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="58" t="n">
+        <v>0.28</v>
+      </c>
       <c r="H14" s="67" t="n">
         <f aca="false">IF(G14=0,,G14/C14)</f>
-        <v>0</v>
+        <v>0.0883280757097792</v>
       </c>
       <c r="I14" s="68" t="n">
         <f aca="false">IF(G14=0,,G14-F14)</f>
-        <v>0</v>
+        <v>0.097308879791966</v>
       </c>
       <c r="J14" s="61" t="n">
         <f aca="false">J13*(1-Diretrizes!D$5)</f>
@@ -4700,7 +4704,7 @@
       </c>
       <c r="C15" s="65" t="n">
         <f aca="false">IF(G14&lt;&gt;0,C14+G14,)</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="D15" s="66" t="n">
         <f aca="false">D14*(1+J14)</f>
@@ -4708,20 +4712,22 @@
       </c>
       <c r="E15" s="65" t="n">
         <f aca="false">C15*J15</f>
-        <v>0</v>
+        <v>0.127304714655097</v>
       </c>
       <c r="F15" s="66" t="n">
         <f aca="false">D15*J15</f>
         <v>0.184865129428371</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="58" t="n">
+        <v>1.1</v>
+      </c>
       <c r="H15" s="67" t="n">
         <f aca="false">IF(G15=0,,G15/C15)</f>
-        <v>0</v>
+        <v>0.318840579710145</v>
       </c>
       <c r="I15" s="68" t="n">
         <f aca="false">IF(G15=0,,G15-F15)</f>
-        <v>0</v>
+        <v>0.915134870571629</v>
       </c>
       <c r="J15" s="61" t="n">
         <f aca="false">J14*(1-Diretrizes!D$5)</f>
@@ -4743,7 +4749,7 @@
       </c>
       <c r="C16" s="65" t="n">
         <f aca="false">IF(G15&lt;&gt;0,C15+G15,)</f>
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="D16" s="66" t="n">
         <f aca="false">D15*(1+J15)</f>
@@ -4751,20 +4757,22 @@
       </c>
       <c r="E16" s="65" t="n">
         <f aca="false">C16*J16</f>
-        <v>0</v>
+        <v>0.163697258083674</v>
       </c>
       <c r="F16" s="66" t="n">
         <f aca="false">D16*J16</f>
         <v>0.18689447147897</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="58" t="n">
+        <v>-2.5</v>
+      </c>
       <c r="H16" s="67" t="n">
         <f aca="false">IF(G16=0,,G16/C16)</f>
-        <v>0</v>
+        <v>-0.54945054945055</v>
       </c>
       <c r="I16" s="68" t="n">
         <f aca="false">IF(G16=0,,G16-F16)</f>
-        <v>0</v>
+        <v>-2.68689447147897</v>
       </c>
       <c r="J16" s="61" t="n">
         <f aca="false">J15*(1-Diretrizes!D$5)</f>
@@ -4787,7 +4795,7 @@
       </c>
       <c r="C17" s="65" t="n">
         <f aca="false">IF(G16&lt;&gt;0,C16+G16,)</f>
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="D17" s="66" t="n">
         <f aca="false">D16*(1+J16)</f>
@@ -4795,7 +4803,7 @@
       </c>
       <c r="E17" s="65" t="n">
         <f aca="false">C17*J17</f>
-        <v>0</v>
+        <v>0.0719098669438996</v>
       </c>
       <c r="F17" s="66" t="n">
         <f aca="false">D17*J17</f>
